--- a/data/theta_significance.xlsx
+++ b/data/theta_significance.xlsx
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
